--- a/Data/PRECIP/Perrault 2010 Precip analysis.xlsx
+++ b/Data/PRECIP/Perrault 2010 Precip analysis.xlsx
@@ -399,12 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -413,6 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,17 +697,17 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
     <col min="18" max="19" width="16.5703125" customWidth="1"/>
     <col min="20" max="20" width="18.42578125" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
@@ -721,24 +721,24 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -786,28 +786,28 @@
       <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <f>SUM(D5:O5)</f>
         <v>217</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="17">
         <f>P5*25.44</f>
         <v>5520.4800000000005</v>
       </c>
@@ -873,19 +873,19 @@
         <f>SUM(I5:L5)</f>
         <v>58</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="17">
         <f>R5*25.44</f>
         <v>4044.96</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="17">
         <f>S5*25.44</f>
         <v>1475.52</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="18">
         <f>T5/Q5</f>
         <v>0.73271889400921653</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="18">
         <f>U5/Q5</f>
         <v>0.26728110599078336</v>
       </c>
@@ -940,7 +940,7 @@
         <f>SUM(D6:O6)</f>
         <v>195</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="17">
         <f>P6*25.44</f>
         <v>4960.8</v>
       </c>
@@ -952,19 +952,19 @@
         <f>SUM(I6:L6)</f>
         <v>49</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="17">
         <f>R6*25.44</f>
         <v>3714.2400000000002</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="17">
         <f>S6*25.44</f>
         <v>1246.5600000000002</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="18">
         <f>T6/Q6</f>
         <v>0.74871794871794872</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="18">
         <f>U6/Q6</f>
         <v>0.25128205128205133</v>
       </c>
